--- a/SchedulingData/dynamic10/pso/scheduling2_18.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_18.xlsx
@@ -462,292 +462,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>271.96</v>
+        <v>246.86</v>
       </c>
       <c r="D2" t="n">
-        <v>314.46</v>
+        <v>307.8</v>
       </c>
       <c r="E2" t="n">
-        <v>10.864</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>245.82</v>
+        <v>216.46</v>
       </c>
       <c r="D3" t="n">
-        <v>304.52</v>
+        <v>268.48</v>
       </c>
       <c r="E3" t="n">
-        <v>12.168</v>
+        <v>15.152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>207.98</v>
+        <v>249.16</v>
       </c>
       <c r="D4" t="n">
-        <v>249.14</v>
+        <v>293.54</v>
       </c>
       <c r="E4" t="n">
-        <v>16.556</v>
+        <v>12.776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>304.52</v>
+        <v>256.48</v>
       </c>
       <c r="D5" t="n">
-        <v>363.52</v>
+        <v>315.34</v>
       </c>
       <c r="E5" t="n">
-        <v>8.868</v>
+        <v>13.576</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>210.66</v>
+        <v>225.66</v>
       </c>
       <c r="D6" t="n">
-        <v>273.96</v>
+        <v>284.42</v>
       </c>
       <c r="E6" t="n">
-        <v>12.284</v>
+        <v>11.688</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>273.96</v>
+        <v>315.34</v>
       </c>
       <c r="D7" t="n">
-        <v>313.92</v>
+        <v>363.06</v>
       </c>
       <c r="E7" t="n">
-        <v>9.907999999999999</v>
+        <v>10.924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>249.14</v>
+        <v>307.8</v>
       </c>
       <c r="D8" t="n">
-        <v>305.74</v>
+        <v>355.4</v>
       </c>
       <c r="E8" t="n">
-        <v>14.476</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>240.62</v>
+        <v>228.02</v>
       </c>
       <c r="D9" t="n">
-        <v>281.42</v>
+        <v>270.62</v>
       </c>
       <c r="E9" t="n">
-        <v>11.528</v>
+        <v>12.128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>165.78</v>
+        <v>268.48</v>
       </c>
       <c r="D10" t="n">
-        <v>221.92</v>
+        <v>307.14</v>
       </c>
       <c r="E10" t="n">
-        <v>16.328</v>
+        <v>12.416</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>363.52</v>
+        <v>270.62</v>
       </c>
       <c r="D11" t="n">
-        <v>422.82</v>
+        <v>314.9</v>
       </c>
       <c r="E11" t="n">
-        <v>5.568</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>314.46</v>
+        <v>355.4</v>
       </c>
       <c r="D12" t="n">
-        <v>386.82</v>
+        <v>404.92</v>
       </c>
       <c r="E12" t="n">
-        <v>7.728</v>
+        <v>9.348000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>221.92</v>
+        <v>404.92</v>
       </c>
       <c r="D13" t="n">
-        <v>301.92</v>
+        <v>459.88</v>
       </c>
       <c r="E13" t="n">
-        <v>13.908</v>
+        <v>6.972</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>313.92</v>
+        <v>307.14</v>
       </c>
       <c r="D14" t="n">
-        <v>368.44</v>
+        <v>360.84</v>
       </c>
       <c r="E14" t="n">
-        <v>7.576</v>
+        <v>9.176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>422.82</v>
+        <v>293.54</v>
       </c>
       <c r="D15" t="n">
-        <v>460.04</v>
+        <v>330.54</v>
       </c>
       <c r="E15" t="n">
-        <v>2.976</v>
+        <v>10.696</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>368.44</v>
+        <v>284.42</v>
       </c>
       <c r="D16" t="n">
-        <v>424.08</v>
+        <v>319.04</v>
       </c>
       <c r="E16" t="n">
-        <v>4.612</v>
+        <v>9.356</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>281.42</v>
+        <v>314.9</v>
       </c>
       <c r="D17" t="n">
-        <v>344.26</v>
+        <v>372.94</v>
       </c>
       <c r="E17" t="n">
-        <v>8.824</v>
+        <v>6.616</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>305.74</v>
+        <v>360.84</v>
       </c>
       <c r="D18" t="n">
-        <v>368.26</v>
+        <v>408.54</v>
       </c>
       <c r="E18" t="n">
-        <v>11.824</v>
+        <v>6.536</v>
       </c>
     </row>
     <row r="19">
@@ -789,36 +789,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>424.08</v>
+        <v>372.94</v>
       </c>
       <c r="D19" t="n">
-        <v>481.58</v>
+        <v>408.44</v>
       </c>
       <c r="E19" t="n">
-        <v>2.452</v>
+        <v>4.196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>368.26</v>
+        <v>363.06</v>
       </c>
       <c r="D20" t="n">
-        <v>407.74</v>
+        <v>419.22</v>
       </c>
       <c r="E20" t="n">
-        <v>9.016</v>
+        <v>8.428000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -827,112 +827,112 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>301.92</v>
+        <v>319.04</v>
       </c>
       <c r="D21" t="n">
-        <v>366.1</v>
+        <v>377.7</v>
       </c>
       <c r="E21" t="n">
-        <v>11.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>386.82</v>
+        <v>377.7</v>
       </c>
       <c r="D22" t="n">
-        <v>438.36</v>
+        <v>436.8</v>
       </c>
       <c r="E22" t="n">
-        <v>4.704</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>438.36</v>
+        <v>459.88</v>
       </c>
       <c r="D23" t="n">
-        <v>510.86</v>
+        <v>512.54</v>
       </c>
       <c r="E23" t="n">
-        <v>2.064</v>
+        <v>3.836</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>366.1</v>
+        <v>330.54</v>
       </c>
       <c r="D24" t="n">
-        <v>424.32</v>
+        <v>374.94</v>
       </c>
       <c r="E24" t="n">
-        <v>7.908</v>
+        <v>7.396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>407.74</v>
+        <v>419.22</v>
       </c>
       <c r="D25" t="n">
-        <v>445.44</v>
+        <v>480.36</v>
       </c>
       <c r="E25" t="n">
-        <v>6.376</v>
+        <v>5.404</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>344.26</v>
+        <v>408.54</v>
       </c>
       <c r="D26" t="n">
-        <v>388.02</v>
+        <v>464.32</v>
       </c>
       <c r="E26" t="n">
-        <v>6.068</v>
+        <v>4.088</v>
       </c>
     </row>
     <row r="27">
@@ -941,36 +941,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>388.02</v>
+        <v>374.94</v>
       </c>
       <c r="D27" t="n">
-        <v>442.44</v>
+        <v>426.4</v>
       </c>
       <c r="E27" t="n">
-        <v>3.736</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>445.44</v>
+        <v>408.44</v>
       </c>
       <c r="D28" t="n">
-        <v>501.32</v>
+        <v>451.34</v>
       </c>
       <c r="E28" t="n">
-        <v>3.928</v>
+        <v>2.036</v>
       </c>
     </row>
   </sheetData>
